--- a/HaverDevProject/wwwroot/templates/supplier-upload-template.xlsx
+++ b/HaverDevProject/wwwroot/templates/supplier-upload-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D18432-E901-44A3-B3A1-73D3B515A4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4CD1A7-2978-44C6-9E43-1A3BC1FE7B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{796EB6AB-8C68-47CF-91EB-20690646CA1C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{796EB6AB-8C68-47CF-91EB-20690646CA1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Supplier</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Supplier Code</t>
   </si>
 </sst>
 </file>
@@ -436,30 +439,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D3389F-2737-4AAC-865C-901D336B7C41}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1"/>
+      <c r="E1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HaverDevProject/wwwroot/templates/supplier-upload-template.xlsx
+++ b/HaverDevProject/wwwroot/templates/supplier-upload-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4CD1A7-2978-44C6-9E43-1A3BC1FE7B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF33D1-07AB-4D65-9AB1-15AEFB318987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{796EB6AB-8C68-47CF-91EB-20690646CA1C}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Supplier</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Contact Name</t>
   </si>
@@ -47,14 +44,90 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Supplier Code</t>
+    <r>
+      <t xml:space="preserve">Supplier Code </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supplier </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fields marked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212529"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are required.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,8 +143,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -97,14 +207,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +553,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,23 +561,25 @@
     <col min="1" max="1" width="19.77734375" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
       </c>
-      <c r="E1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
